--- a/config/excel/装备1.xlsx
+++ b/config/excel/装备1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quan\IdeaProjects\quan\config\config-java\src\test\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\IdeaProjects\quan\config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7A95343-B4E5-4E8E-910C-31531BCCE263}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E67701B-B0CE-4784-AA8C-8142D72146DF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="装备1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -71,12 +71,19 @@
   </si>
   <si>
     <t>43*45</t>
+  </si>
+  <si>
+    <t>生效时间</t>
+  </si>
+  <si>
+    <t>2019.08.06 14.35.25</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1021,16 +1028,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="20.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1056,13 +1066,16 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1093,8 +1106,11 @@
       <c r="J2" t="s">
         <v>9</v>
       </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1119,15 +1135,19 @@
       <c r="H3" t="s">
         <v>16</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3">
         <v>1</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config/excel/装备1.xlsx
+++ b/config/excel/装备1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\IdeaProjects\quan\config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E67701B-B0CE-4784-AA8C-8142D72146DF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE1CE4D-1D2A-49E7-9845-9EC74EC6DCEF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,9 +67,6 @@
     <t>342;45</t>
   </si>
   <si>
-    <t>22;22;456</t>
-  </si>
-  <si>
     <t>43*45</t>
   </si>
   <si>
@@ -77,6 +74,10 @@
   </si>
   <si>
     <t>2019.08.06 14.35.25</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>22;23;456</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1032,7 +1033,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1066,7 +1067,7 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
@@ -1130,13 +1131,13 @@
         <v>14</v>
       </c>
       <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3">
         <v>1</v>
